--- a/封片机通信协议_精简版.xlsx
+++ b/封片机通信协议_精简版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\封片机\Glass_Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929A73B-4E6A-47E1-8419-AFFB2AD82217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF883A66-BC32-400B-9FD8-9CB05B875673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="查询协议" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="错误警报" sheetId="10" r:id="rId5"/>
     <sheet name="协议框架" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1522,34 +1522,40 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1827,10 +1833,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,17 +1926,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1941,40 +1950,31 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,19 +1986,43 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,24 +2063,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AH132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG75" sqref="AG75"/>
+    <sheetView tabSelected="1" topLeftCell="F58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC83" sqref="AC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2363,29 +2369,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="M2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -2623,64 +2629,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
       <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
     </row>
     <row r="9" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
       <c r="M9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="67"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="65"/>
     </row>
     <row r="10" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -2731,18 +2737,18 @@
       <c r="S10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="68" t="s">
+      <c r="T10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="70"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="59"/>
       <c r="AD10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2992,46 +2998,46 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="17" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="M17" s="88" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="M17" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
     </row>
     <row r="18" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
@@ -3082,14 +3088,14 @@
       <c r="S18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="68" t="s">
+      <c r="T18" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="70"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="59"/>
       <c r="Z18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3311,40 +3317,40 @@
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
       <c r="M22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="59"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="68"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
       <c r="M25" s="46" t="s">
         <v>211</v>
       </c>
@@ -3409,11 +3415,11 @@
       <c r="S26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="61" t="s">
+      <c r="T26" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
       <c r="W26" s="1" t="s">
         <v>9</v>
       </c>
@@ -3485,16 +3491,16 @@
       <c r="X27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA27" s="63" t="s">
+      <c r="AA27" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
     </row>
     <row r="28" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
@@ -3676,54 +3682,54 @@
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
       <c r="M30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="57"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="68"/>
     </row>
     <row r="37" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="M37" s="86" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="M37" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
     </row>
     <row r="38" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
@@ -3774,12 +3780,12 @@
       <c r="S38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="68" t="s">
+      <c r="T38" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
       <c r="X38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3854,16 +3860,16 @@
       <c r="Y39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA39" s="63" t="s">
+      <c r="AA39" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="AB39" s="64"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="64"/>
-      <c r="AH39" s="64"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
+      <c r="AH39" s="62"/>
     </row>
     <row r="40" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
@@ -4035,38 +4041,38 @@
       <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="52"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
       <c r="M42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="57"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="59"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="68"/>
     </row>
     <row r="45" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA45" s="63" t="s">
+      <c r="AA45" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="64"/>
+      <c r="AB45" s="62"/>
+      <c r="AC45" s="62"/>
+      <c r="AD45" s="62"/>
+      <c r="AE45" s="62"/>
+      <c r="AF45" s="62"/>
+      <c r="AG45" s="62"/>
+      <c r="AH45" s="62"/>
     </row>
     <row r="46" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA46" s="42" t="s">
@@ -4111,16 +4117,16 @@
       </c>
     </row>
     <row r="51" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA51" s="63" t="s">
+      <c r="AA51" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="64"/>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="64"/>
+      <c r="AB51" s="62"/>
+      <c r="AC51" s="62"/>
+      <c r="AD51" s="62"/>
+      <c r="AE51" s="62"/>
+      <c r="AF51" s="62"/>
+      <c r="AG51" s="62"/>
+      <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA52" s="42" t="s">
@@ -4169,16 +4175,16 @@
       </c>
     </row>
     <row r="57" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="AA57" s="63" t="s">
+      <c r="AA57" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="AB57" s="64"/>
-      <c r="AC57" s="64"/>
-      <c r="AD57" s="64"/>
-      <c r="AE57" s="64"/>
-      <c r="AF57" s="64"/>
-      <c r="AG57" s="64"/>
-      <c r="AH57" s="64"/>
+      <c r="AB57" s="62"/>
+      <c r="AC57" s="62"/>
+      <c r="AD57" s="62"/>
+      <c r="AE57" s="62"/>
+      <c r="AF57" s="62"/>
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="62"/>
     </row>
     <row r="58" spans="3:34" ht="17.25" x14ac:dyDescent="0.15">
       <c r="AA58" s="42" t="s">
@@ -4227,17 +4233,17 @@
       </c>
     </row>
     <row r="64" spans="3:34" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
       <c r="M64" s="55" t="s">
         <v>38</v>
       </c>
@@ -4304,13 +4310,13 @@
       <c r="S65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T65" s="56" t="s">
+      <c r="T65" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="56"/>
-      <c r="V65" s="56"/>
-      <c r="W65" s="56"/>
-      <c r="X65" s="56"/>
+      <c r="U65" s="60"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="60"/>
       <c r="Y65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4525,68 +4531,68 @@
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="53"/>
       <c r="M69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="54" t="s">
+      <c r="N69" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-      <c r="W69" s="54"/>
-      <c r="X69" s="54"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="54"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="56"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="56"/>
+      <c r="Y69" s="56"/>
+      <c r="Z69" s="56"/>
     </row>
     <row r="73" spans="3:33" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
-      <c r="M73" s="88" t="s">
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="M73" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="N73" s="89"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="89"/>
-      <c r="Q73" s="89"/>
-      <c r="R73" s="89"/>
-      <c r="S73" s="89"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="89"/>
-      <c r="V73" s="89"/>
-      <c r="W73" s="89"/>
-      <c r="X73" s="89"/>
-      <c r="Y73" s="89"/>
-      <c r="Z73" s="89"/>
-      <c r="AA73" s="89"/>
-      <c r="AB73" s="89"/>
-      <c r="AC73" s="89"/>
-      <c r="AD73" s="89"/>
-      <c r="AE73" s="89"/>
+      <c r="N73" s="72"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="72"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="72"/>
+      <c r="Y73" s="72"/>
+      <c r="Z73" s="72"/>
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="72"/>
     </row>
     <row r="74" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
@@ -4637,17 +4643,17 @@
       <c r="S74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T74" s="68" t="s">
+      <c r="T74" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U74" s="69"/>
-      <c r="V74" s="69"/>
-      <c r="W74" s="69"/>
-      <c r="X74" s="69"/>
-      <c r="Y74" s="69"/>
-      <c r="Z74" s="69"/>
-      <c r="AA74" s="69"/>
-      <c r="AB74" s="69"/>
+      <c r="U74" s="58"/>
+      <c r="V74" s="58"/>
+      <c r="W74" s="58"/>
+      <c r="X74" s="58"/>
+      <c r="Y74" s="58"/>
+      <c r="Z74" s="58"/>
+      <c r="AA74" s="58"/>
+      <c r="AB74" s="58"/>
       <c r="AC74" s="1" t="s">
         <v>9</v>
       </c>
@@ -4788,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="T76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U76" s="3">
         <v>2</v>
       </c>
       <c r="V76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W76" s="3">
         <v>2</v>
@@ -4803,13 +4809,13 @@
         <v>2</v>
       </c>
       <c r="Y76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z76" s="3">
         <v>2</v>
       </c>
       <c r="AA76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB76" s="3">
         <v>2</v>
@@ -4822,7 +4828,7 @@
       </c>
       <c r="AF76" s="45">
         <f>SUM(N76:AD76)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="3:33" ht="17.25" x14ac:dyDescent="0.15">
@@ -4908,48 +4914,48 @@
       <c r="C78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="52"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="53"/>
       <c r="M78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N78" s="50"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="51"/>
-      <c r="V78" s="51"/>
-      <c r="W78" s="51"/>
-      <c r="X78" s="51"/>
-      <c r="Y78" s="51"/>
-      <c r="Z78" s="51"/>
-      <c r="AA78" s="51"/>
-      <c r="AB78" s="51"/>
-      <c r="AC78" s="51"/>
-      <c r="AD78" s="52"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="52"/>
+      <c r="T78" s="52"/>
+      <c r="U78" s="52"/>
+      <c r="V78" s="52"/>
+      <c r="W78" s="52"/>
+      <c r="X78" s="52"/>
+      <c r="Y78" s="52"/>
+      <c r="Z78" s="52"/>
+      <c r="AA78" s="52"/>
+      <c r="AB78" s="52"/>
+      <c r="AC78" s="52"/>
+      <c r="AD78" s="53"/>
     </row>
     <row r="82" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C82" s="60" t="s">
+      <c r="C82" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="M82" s="90" t="s">
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="M82" s="54" t="s">
         <v>266</v>
       </c>
       <c r="N82" s="55"/>
@@ -5015,13 +5021,13 @@
       <c r="S83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="68" t="s">
+      <c r="T83" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U83" s="69"/>
-      <c r="V83" s="69"/>
-      <c r="W83" s="69"/>
-      <c r="X83" s="69"/>
+      <c r="U83" s="58"/>
+      <c r="V83" s="58"/>
+      <c r="W83" s="58"/>
+      <c r="X83" s="58"/>
       <c r="Y83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5228,7 +5234,7 @@
       <c r="U86" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="V86" s="91" t="s">
+      <c r="V86" s="48" t="s">
         <v>272</v>
       </c>
       <c r="W86" s="42" t="s">
@@ -5246,44 +5252,44 @@
       <c r="C87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="52"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="53"/>
       <c r="M87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="54"/>
-      <c r="T87" s="54"/>
-      <c r="U87" s="54"/>
-      <c r="V87" s="54"/>
-      <c r="W87" s="54"/>
-      <c r="X87" s="54"/>
-      <c r="Y87" s="54"/>
-      <c r="Z87" s="54"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
+      <c r="W87" s="56"/>
+      <c r="X87" s="56"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
     </row>
     <row r="91" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
-      <c r="M91" s="90" t="s">
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="M91" s="54" t="s">
         <v>277</v>
       </c>
       <c r="N91" s="55"/>
@@ -5349,13 +5355,13 @@
       <c r="S92" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T92" s="56" t="s">
+      <c r="T92" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="U92" s="56"/>
-      <c r="V92" s="56"/>
-      <c r="W92" s="56"/>
-      <c r="X92" s="56"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="60"/>
       <c r="Y92" s="1" t="s">
         <v>9</v>
       </c>
@@ -5570,44 +5576,44 @@
       <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="52"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="53"/>
       <c r="M96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="54"/>
-      <c r="Q96" s="54"/>
-      <c r="R96" s="54"/>
-      <c r="S96" s="54"/>
-      <c r="T96" s="54"/>
-      <c r="U96" s="54"/>
-      <c r="V96" s="54"/>
-      <c r="W96" s="54"/>
-      <c r="X96" s="54"/>
-      <c r="Y96" s="54"/>
-      <c r="Z96" s="54"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="56"/>
+      <c r="U96" s="56"/>
+      <c r="V96" s="56"/>
+      <c r="W96" s="56"/>
+      <c r="X96" s="56"/>
+      <c r="Y96" s="56"/>
+      <c r="Z96" s="56"/>
     </row>
     <row r="100" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C100" s="60" t="s">
+      <c r="C100" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="48"/>
-      <c r="M100" s="90" t="s">
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="M100" s="54" t="s">
         <v>283</v>
       </c>
       <c r="N100" s="55"/>
@@ -5673,12 +5679,12 @@
       <c r="S101" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="68" t="s">
+      <c r="T101" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U101" s="69"/>
-      <c r="V101" s="69"/>
-      <c r="W101" s="70"/>
+      <c r="U101" s="58"/>
+      <c r="V101" s="58"/>
+      <c r="W101" s="59"/>
       <c r="X101" s="1" t="s">
         <v>9</v>
       </c>
@@ -5894,44 +5900,44 @@
       <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="50"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="52"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="52"/>
+      <c r="K105" s="53"/>
       <c r="M105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
-      <c r="Q105" s="54"/>
-      <c r="R105" s="54"/>
-      <c r="S105" s="54"/>
-      <c r="T105" s="54"/>
-      <c r="U105" s="54"/>
-      <c r="V105" s="54"/>
-      <c r="W105" s="54"/>
-      <c r="X105" s="54"/>
-      <c r="Y105" s="54"/>
-      <c r="Z105" s="54"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="56"/>
+      <c r="R105" s="56"/>
+      <c r="S105" s="56"/>
+      <c r="T105" s="56"/>
+      <c r="U105" s="56"/>
+      <c r="V105" s="56"/>
+      <c r="W105" s="56"/>
+      <c r="X105" s="56"/>
+      <c r="Y105" s="56"/>
+      <c r="Z105" s="56"/>
     </row>
     <row r="110" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C110" s="60" t="s">
+      <c r="C110" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="48"/>
-      <c r="M110" s="90" t="s">
+      <c r="D110" s="50"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+      <c r="M110" s="54" t="s">
         <v>288</v>
       </c>
       <c r="N110" s="55"/>
@@ -5997,12 +6003,12 @@
       <c r="S111" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T111" s="68" t="s">
+      <c r="T111" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U111" s="69"/>
-      <c r="V111" s="69"/>
-      <c r="W111" s="70"/>
+      <c r="U111" s="58"/>
+      <c r="V111" s="58"/>
+      <c r="W111" s="59"/>
       <c r="X111" s="1" t="s">
         <v>9</v>
       </c>
@@ -6216,44 +6222,44 @@
       <c r="C115" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D115" s="50"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-      <c r="J115" s="51"/>
-      <c r="K115" s="52"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="53"/>
       <c r="M115" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N115" s="54"/>
-      <c r="O115" s="54"/>
-      <c r="P115" s="54"/>
-      <c r="Q115" s="54"/>
-      <c r="R115" s="54"/>
-      <c r="S115" s="54"/>
-      <c r="T115" s="54"/>
-      <c r="U115" s="54"/>
-      <c r="V115" s="54"/>
-      <c r="W115" s="54"/>
-      <c r="X115" s="54"/>
-      <c r="Y115" s="54"/>
-      <c r="Z115" s="54"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="56"/>
+      <c r="P115" s="56"/>
+      <c r="Q115" s="56"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="56"/>
+      <c r="T115" s="56"/>
+      <c r="U115" s="56"/>
+      <c r="V115" s="56"/>
+      <c r="W115" s="56"/>
+      <c r="X115" s="56"/>
+      <c r="Y115" s="56"/>
+      <c r="Z115" s="56"/>
     </row>
     <row r="118" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C118" s="60" t="s">
+      <c r="C118" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="48"/>
-      <c r="K118" s="48"/>
-      <c r="M118" s="90" t="s">
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="50"/>
+      <c r="M118" s="54" t="s">
         <v>296</v>
       </c>
       <c r="N118" s="55"/>
@@ -6319,11 +6325,11 @@
       <c r="S119" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T119" s="68" t="s">
+      <c r="T119" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U119" s="69"/>
-      <c r="V119" s="70"/>
+      <c r="U119" s="58"/>
+      <c r="V119" s="59"/>
       <c r="W119" s="1" t="s">
         <v>9</v>
       </c>
@@ -6524,44 +6530,44 @@
       <c r="C123" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D123" s="50"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="51"/>
-      <c r="I123" s="51"/>
-      <c r="J123" s="51"/>
-      <c r="K123" s="52"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="53"/>
       <c r="M123" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N123" s="54"/>
-      <c r="O123" s="54"/>
-      <c r="P123" s="54"/>
-      <c r="Q123" s="54"/>
-      <c r="R123" s="54"/>
-      <c r="S123" s="54"/>
-      <c r="T123" s="54"/>
-      <c r="U123" s="54"/>
-      <c r="V123" s="54"/>
-      <c r="W123" s="54"/>
-      <c r="X123" s="54"/>
-      <c r="Y123" s="54"/>
-      <c r="Z123" s="54"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="56"/>
+      <c r="P123" s="56"/>
+      <c r="Q123" s="56"/>
+      <c r="R123" s="56"/>
+      <c r="S123" s="56"/>
+      <c r="T123" s="56"/>
+      <c r="U123" s="56"/>
+      <c r="V123" s="56"/>
+      <c r="W123" s="56"/>
+      <c r="X123" s="56"/>
+      <c r="Y123" s="56"/>
+      <c r="Z123" s="56"/>
     </row>
     <row r="127" spans="3:32" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C127" s="60" t="s">
+      <c r="C127" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="D127" s="48"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="48"/>
-      <c r="J127" s="48"/>
-      <c r="K127" s="48"/>
-      <c r="M127" s="90" t="s">
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="50"/>
+      <c r="K127" s="50"/>
+      <c r="M127" s="54" t="s">
         <v>301</v>
       </c>
       <c r="N127" s="55"/>
@@ -6627,11 +6633,11 @@
       <c r="S128" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="T128" s="68" t="s">
+      <c r="T128" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="U128" s="69"/>
-      <c r="V128" s="70"/>
+      <c r="U128" s="58"/>
+      <c r="V128" s="59"/>
       <c r="W128" s="1" t="s">
         <v>9</v>
       </c>
@@ -6832,72 +6838,45 @@
       <c r="C132" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D132" s="50"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="51"/>
-      <c r="I132" s="51"/>
-      <c r="J132" s="51"/>
-      <c r="K132" s="52"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="53"/>
       <c r="M132" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N132" s="54"/>
-      <c r="O132" s="54"/>
-      <c r="P132" s="54"/>
-      <c r="Q132" s="54"/>
-      <c r="R132" s="54"/>
-      <c r="S132" s="54"/>
-      <c r="T132" s="54"/>
-      <c r="U132" s="54"/>
-      <c r="V132" s="54"/>
-      <c r="W132" s="54"/>
-      <c r="X132" s="54"/>
-      <c r="Y132" s="54"/>
-      <c r="Z132" s="54"/>
+      <c r="N132" s="56"/>
+      <c r="O132" s="56"/>
+      <c r="P132" s="56"/>
+      <c r="Q132" s="56"/>
+      <c r="R132" s="56"/>
+      <c r="S132" s="56"/>
+      <c r="T132" s="56"/>
+      <c r="U132" s="56"/>
+      <c r="V132" s="56"/>
+      <c r="W132" s="56"/>
+      <c r="X132" s="56"/>
+      <c r="Y132" s="56"/>
+      <c r="Z132" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C127:K127"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="M127:Z127"/>
-    <mergeCell ref="N132:Z132"/>
-    <mergeCell ref="T128:V128"/>
-    <mergeCell ref="C118:K118"/>
-    <mergeCell ref="D123:K123"/>
-    <mergeCell ref="M118:Z118"/>
-    <mergeCell ref="N123:Z123"/>
-    <mergeCell ref="T119:V119"/>
-    <mergeCell ref="C110:K110"/>
-    <mergeCell ref="D115:K115"/>
-    <mergeCell ref="M110:Z110"/>
-    <mergeCell ref="N115:Z115"/>
-    <mergeCell ref="T111:W111"/>
-    <mergeCell ref="C100:K100"/>
-    <mergeCell ref="D105:K105"/>
-    <mergeCell ref="M100:Z100"/>
-    <mergeCell ref="N105:Z105"/>
-    <mergeCell ref="T101:W101"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="M91:Z91"/>
-    <mergeCell ref="T92:X92"/>
-    <mergeCell ref="N96:Z96"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="D87:K87"/>
-    <mergeCell ref="M82:Z82"/>
-    <mergeCell ref="T83:X83"/>
-    <mergeCell ref="N87:Z87"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="AA57:AH57"/>
-    <mergeCell ref="N9:AE9"/>
-    <mergeCell ref="N42:V42"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="T10:AC10"/>
-    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="D69:K69"/>
+    <mergeCell ref="N69:Z69"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="M64:Z64"/>
+    <mergeCell ref="T65:X65"/>
     <mergeCell ref="N78:AD78"/>
     <mergeCell ref="M37:Y37"/>
     <mergeCell ref="M73:AE73"/>
@@ -6914,18 +6893,45 @@
     <mergeCell ref="N22:V22"/>
     <mergeCell ref="C73:K73"/>
     <mergeCell ref="T74:AB74"/>
-    <mergeCell ref="D69:K69"/>
-    <mergeCell ref="N69:Z69"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="M64:Z64"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="N9:AE9"/>
+    <mergeCell ref="N42:V42"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="T10:AC10"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="D87:K87"/>
+    <mergeCell ref="M82:Z82"/>
+    <mergeCell ref="T83:X83"/>
+    <mergeCell ref="N87:Z87"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="M91:Z91"/>
+    <mergeCell ref="T92:X92"/>
+    <mergeCell ref="N96:Z96"/>
+    <mergeCell ref="C100:K100"/>
+    <mergeCell ref="D105:K105"/>
+    <mergeCell ref="M100:Z100"/>
+    <mergeCell ref="N105:Z105"/>
+    <mergeCell ref="T101:W101"/>
+    <mergeCell ref="C110:K110"/>
+    <mergeCell ref="D115:K115"/>
+    <mergeCell ref="M110:Z110"/>
+    <mergeCell ref="N115:Z115"/>
+    <mergeCell ref="T111:W111"/>
+    <mergeCell ref="C118:K118"/>
+    <mergeCell ref="D123:K123"/>
+    <mergeCell ref="M118:Z118"/>
+    <mergeCell ref="N123:Z123"/>
+    <mergeCell ref="T119:V119"/>
+    <mergeCell ref="C127:K127"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="M127:Z127"/>
+    <mergeCell ref="N132:Z132"/>
+    <mergeCell ref="T128:V128"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6950,38 +6956,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="V2" s="72" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="V2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
     </row>
     <row r="3" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -7005,17 +7011,17 @@
       <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7309,64 +7315,64 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="54" t="s">
+      <c r="W7" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
     </row>
     <row r="8" spans="3:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="N9" s="72" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="N9" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
     </row>
     <row r="10" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
@@ -7614,65 +7620,65 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
       <c r="N14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="16" spans="3:35" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Z16" s="72" t="s">
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Z16" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="77"/>
     </row>
     <row r="17" spans="3:35" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
@@ -7696,21 +7702,21 @@
       <c r="I17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
       <c r="W17" s="1" t="s">
         <v>9</v>
       </c>
@@ -8034,45 +8040,50 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
       <c r="Z21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA21" s="54" t="s">
+      <c r="AA21" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
     </row>
     <row r="22" spans="3:35" ht="225" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="D7:T7"/>
+    <mergeCell ref="W7:AE7"/>
     <mergeCell ref="Z16:AI16"/>
     <mergeCell ref="J17:V17"/>
     <mergeCell ref="D21:X21"/>
@@ -8082,11 +8093,6 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="O14:W14"/>
     <mergeCell ref="C16:X16"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="V2:AE2"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="D7:T7"/>
-    <mergeCell ref="W7:AE7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8115,17 +8121,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
@@ -8243,31 +8249,31 @@
     </row>
     <row r="7" spans="3:25" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="N8" s="74" t="s">
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="N8" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
     </row>
     <row r="9" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
@@ -8549,32 +8555,32 @@
     </row>
     <row r="14" spans="3:25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:25" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="O15" s="74" t="s">
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="O15" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
     </row>
     <row r="16" spans="3:25" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
@@ -8598,10 +8604,10 @@
       <c r="I16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="56"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="1" t="s">
         <v>9</v>
       </c>
@@ -8933,31 +8939,31 @@
     </row>
     <row r="23" spans="3:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="3:26" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="N24" s="74" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="N24" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="3:26" ht="17.25" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
@@ -9308,7 +9314,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="82" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -9331,7 +9337,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="77"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="8" t="s">
         <v>123</v>
       </c>
@@ -9370,20 +9376,20 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="79"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
@@ -9404,7 +9410,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="79"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="12" t="s">
         <v>130</v>
       </c>
@@ -9852,18 +9858,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -9987,17 +9993,17 @@
       <c r="B7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="2">
